--- a/CadFunc.xlsx
+++ b/CadFunc.xlsx
@@ -1,30 +1,521 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.oliveira\Documents\Projeto_Automacao\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="165">
+  <si>
+    <t>ALINE CRISTINA DE CAMARGO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO DE CAMARGO</t>
+  </si>
+  <si>
+    <t>18/05/1990</t>
+  </si>
+  <si>
+    <t>ANA BEATRIZ RIBEIRO SANTANA</t>
+  </si>
+  <si>
+    <t>EDVAN MOREIRA DE SANTANA</t>
+  </si>
+  <si>
+    <t>26/05/2001</t>
+  </si>
+  <si>
+    <t>ANA CLAUDIA ZECHINATO</t>
+  </si>
+  <si>
+    <t>JOSE IVAN ZECHINATO</t>
+  </si>
+  <si>
+    <t>12/12/1993</t>
+  </si>
+  <si>
+    <t>ANA JULIA APARECIDA BRITO</t>
+  </si>
+  <si>
+    <t>MANOEL FELIZ DE BRITO</t>
+  </si>
+  <si>
+    <t>02/05/2001</t>
+  </si>
+  <si>
+    <t>ANA KAROLINE DOS REIS BERALDO DE LIMA</t>
+  </si>
+  <si>
+    <t>PAULO ROBERTO BERALDO DE LIMA</t>
+  </si>
+  <si>
+    <t>21/11/2000</t>
+  </si>
+  <si>
+    <t>ANDRE LUIZ DE ARAUJO</t>
+  </si>
+  <si>
+    <t>ANTONIO ITAMA DE ARAUJO</t>
+  </si>
+  <si>
+    <t>13/02/1995</t>
+  </si>
+  <si>
+    <t>BRENDA TAIS OLIVEIRA</t>
+  </si>
+  <si>
+    <t>CLAYTON SIDNEY DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>02/11/2001</t>
+  </si>
+  <si>
+    <t>DANIELE APARECIDA PEREIRA DOS REIS</t>
+  </si>
+  <si>
+    <t>GABRIEL DONIZETE DOS REIS</t>
+  </si>
+  <si>
+    <t>28/01/2000</t>
+  </si>
+  <si>
+    <t>DANIELLE VITAL DOS SANTOS MULLER</t>
+  </si>
+  <si>
+    <t>LAURO FRANCISCO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>23/10/1984</t>
+  </si>
+  <si>
+    <t>DANILO DE VASCONCELOS</t>
+  </si>
+  <si>
+    <t>JOSE HARLEI DE VASCONCELOS</t>
+  </si>
+  <si>
+    <t>25/09/1987</t>
+  </si>
+  <si>
+    <t>DAVI FERNANDO MORENO</t>
+  </si>
+  <si>
+    <t>JOSE FERNANDO DE CAMPOS LEME MORENO</t>
+  </si>
+  <si>
+    <t>19/02/1983</t>
+  </si>
+  <si>
+    <t>DAVID LEYVISON DA SILVA</t>
+  </si>
+  <si>
+    <t>JOSE LEVI DA SILVA</t>
+  </si>
+  <si>
+    <t>11/10/1990</t>
+  </si>
+  <si>
+    <t>DOUGLAS FRANCISCO MACIEL</t>
+  </si>
+  <si>
+    <t>NÃO RECONHECIDO</t>
+  </si>
+  <si>
+    <t>12/02/1987</t>
+  </si>
+  <si>
+    <t>EDER ARTUR MARQUES DA SILVA</t>
+  </si>
+  <si>
+    <t>EDERSON DA SILVA</t>
+  </si>
+  <si>
+    <t>05/07/2001</t>
+  </si>
+  <si>
+    <t>ESTEVAO GONCALVES DE ANDRADE</t>
+  </si>
+  <si>
+    <t>16/03/1987</t>
+  </si>
+  <si>
+    <t>EVERSON FAGUNDES RODRIGUES</t>
+  </si>
+  <si>
+    <t>EDSON APARECIDO RODRIGUES</t>
+  </si>
+  <si>
+    <t>23/02/1993</t>
+  </si>
+  <si>
+    <t>FABIANO JUNIOR MAGALHAES</t>
+  </si>
+  <si>
+    <t>VALDIR MONTEIRO MAGALHAES</t>
+  </si>
+  <si>
+    <t>26/02/1989</t>
+  </si>
+  <si>
+    <t>GABRIELE DA ROCHA LIMA CABRAL</t>
+  </si>
+  <si>
+    <t>FABIANO CABRAL</t>
+  </si>
+  <si>
+    <t>08/04/2000</t>
+  </si>
+  <si>
+    <t>GEOVANIO PEREIRA DE LIMA</t>
+  </si>
+  <si>
+    <t>JOAO PEREIRA DE LIMA</t>
+  </si>
+  <si>
+    <t>25/07/1975</t>
+  </si>
+  <si>
+    <t>GERALDO MARGELLA FRANKLYN GOMES FARIAS</t>
+  </si>
+  <si>
+    <t>FRANCISCO TORRES FARIAS</t>
+  </si>
+  <si>
+    <t>07/03/1993</t>
+  </si>
+  <si>
+    <t>GILBERTO NUNES DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>ROBERTO MARINHO DA SILVA</t>
+  </si>
+  <si>
+    <t>06/12/1989</t>
+  </si>
+  <si>
+    <t>IGOR RENAN DE SOUZA CARDOSO</t>
+  </si>
+  <si>
+    <t>SERGIO ROGERIO CARDOSO</t>
+  </si>
+  <si>
+    <t>28/01/1989</t>
+  </si>
+  <si>
+    <t>ISABELLA CEZAR</t>
+  </si>
+  <si>
+    <t>JOSE EDUARDO CEZAR</t>
+  </si>
+  <si>
+    <t>21/12/1996</t>
+  </si>
+  <si>
+    <t>JARDEL NARDIN</t>
+  </si>
+  <si>
+    <t>JOSE NARDIN</t>
+  </si>
+  <si>
+    <t>27/05/1991</t>
+  </si>
+  <si>
+    <t>JOSE MARIO ALENCAR DE SOUZA E SILVA</t>
+  </si>
+  <si>
+    <t>APARECIDO DONIZETI DA SILVA</t>
+  </si>
+  <si>
+    <t>17/03/2000</t>
+  </si>
+  <si>
+    <t>JUCARA ALVES PACHECO DE MACEDO</t>
+  </si>
+  <si>
+    <t>ARLINDO PACHECO DE MACEDO</t>
+  </si>
+  <si>
+    <t>08/05/1989</t>
+  </si>
+  <si>
+    <t>KELVELYN RENAN FERREIRA DE MOURA</t>
+  </si>
+  <si>
+    <t>ANTONIO MIRANDA DE MOURA</t>
+  </si>
+  <si>
+    <t>11/09/1992</t>
+  </si>
+  <si>
+    <t>KELY PEREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>CLAUDIO PEREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>07/06/2000</t>
+  </si>
+  <si>
+    <t>LAIS TALITA FERREIRA</t>
+  </si>
+  <si>
+    <t>BENEDITO RENATO FERREIRA</t>
+  </si>
+  <si>
+    <t>16/02/1995</t>
+  </si>
+  <si>
+    <t>LARA DE OLIVEIRA LIXANDRAO</t>
+  </si>
+  <si>
+    <t>LUCIANO JOSE LIXANDRAO</t>
+  </si>
+  <si>
+    <t>15/10/2001</t>
+  </si>
+  <si>
+    <t>LEANDRO SILVEIRA SILVA</t>
+  </si>
+  <si>
+    <t>ALCIDES DOS SANTOS SILVA</t>
+  </si>
+  <si>
+    <t>10/11/1988</t>
+  </si>
+  <si>
+    <t>LILIAN APARECIDA FRUCTUOSO</t>
+  </si>
+  <si>
+    <t>CLAUDIO FRANCISCO FRUCTUOSO</t>
+  </si>
+  <si>
+    <t>30/10/1996</t>
+  </si>
+  <si>
+    <t>LUCAS ARIEL DE SOUZA</t>
+  </si>
+  <si>
+    <t>SEBASTIAO CARLOS DE SOUZA</t>
+  </si>
+  <si>
+    <t>03/03/1986</t>
+  </si>
+  <si>
+    <t>LUCAS DE SOUSA E SILVA</t>
+  </si>
+  <si>
+    <t>RUI DE SOUSA E SILVA</t>
+  </si>
+  <si>
+    <t>18/04/1994</t>
+  </si>
+  <si>
+    <t>LUCAS MOREIRA</t>
+  </si>
+  <si>
+    <t>22/05/1997</t>
+  </si>
+  <si>
+    <t>MARCELO ARMANDO DE CARVALHO</t>
+  </si>
+  <si>
+    <t>ALBERTO ARMANDO DE CARVALHO</t>
+  </si>
+  <si>
+    <t>18/02/1970</t>
+  </si>
+  <si>
+    <t>MARIA EDUARDA BENETE</t>
+  </si>
+  <si>
+    <t>JORGE LUIZ BENETE</t>
+  </si>
+  <si>
+    <t>15/05/2001</t>
+  </si>
+  <si>
+    <t>MIGUEL ALEXANDRE FERRARESSO</t>
+  </si>
+  <si>
+    <t>ARLINDO AURELIO FERRARESSO JUNIOR</t>
+  </si>
+  <si>
+    <t>11/03/1991</t>
+  </si>
+  <si>
+    <t>MIRELLA CAROLINE ALVES CORREA</t>
+  </si>
+  <si>
+    <t>SIMEAO DE GODOI ALVES CORREA</t>
+  </si>
+  <si>
+    <t>18/01/2001</t>
+  </si>
+  <si>
+    <t>PAMELA JAQUELINE MOREIRA</t>
+  </si>
+  <si>
+    <t>JOAO FERNANDO MOREIRA</t>
+  </si>
+  <si>
+    <t>18/07/1989</t>
+  </si>
+  <si>
+    <t>PAULO ALEXANDRE FERNANDES</t>
+  </si>
+  <si>
+    <t>BENEDITO DEVANIR FERNANDES</t>
+  </si>
+  <si>
+    <t>29/11/1970</t>
+  </si>
+  <si>
+    <t>RAFAEL DO AMARAL BORBOLATO</t>
+  </si>
+  <si>
+    <t>DIRCEU BORBOLATO</t>
+  </si>
+  <si>
+    <t>09/02/1991</t>
+  </si>
+  <si>
+    <t>RAFAEL MARANGONI PANEGASSI</t>
+  </si>
+  <si>
+    <t>SIDNEI PANEGASSI</t>
+  </si>
+  <si>
+    <t>18/02/1993</t>
+  </si>
+  <si>
+    <t>RENAN CORREIA OLIVEIRA SANTOS</t>
+  </si>
+  <si>
+    <t>WILSON OLIVEIRA SANTOS</t>
+  </si>
+  <si>
+    <t>11/05/1997</t>
+  </si>
+  <si>
+    <t>RICARDO DE GODOI</t>
+  </si>
+  <si>
+    <t>ANTONIO DE GODOI</t>
+  </si>
+  <si>
+    <t>07/11/1984</t>
+  </si>
+  <si>
+    <t>ROBENS PAUL</t>
+  </si>
+  <si>
+    <t>BANCE PAUL</t>
+  </si>
+  <si>
+    <t>10/08/1991</t>
+  </si>
+  <si>
+    <t>RONALDO DE GODOI</t>
+  </si>
+  <si>
+    <t>15/09/1983</t>
+  </si>
+  <si>
+    <t>SAMUEL ANTUNES RODRIGUES</t>
+  </si>
+  <si>
+    <t>SALUSTRIANO PINHEIRO RODRIGUES</t>
+  </si>
+  <si>
+    <t>07/07/1997</t>
+  </si>
+  <si>
+    <t>SEBASTIAO FRANCISCO FANTINI</t>
+  </si>
+  <si>
+    <t>NESTOR FANTINI</t>
+  </si>
+  <si>
+    <t>23/01/1946</t>
+  </si>
+  <si>
+    <t>TAINARA APARECIDA MAURICIO</t>
+  </si>
+  <si>
+    <t>JOSE APARECIDO MAURICIO</t>
+  </si>
+  <si>
+    <t>07/09/1999</t>
+  </si>
+  <si>
+    <t>THAMIRYS RAIANY ALMEIDA SOUZA FURAO</t>
+  </si>
+  <si>
+    <t>JOSE GERALDO DE SOUZA</t>
+  </si>
+  <si>
+    <t>19/09/1991</t>
+  </si>
+  <si>
+    <t>THIAGO HENRIQUE DA SILVA PINTO</t>
+  </si>
+  <si>
+    <t>FERNANDO APARECIDO PINTO</t>
+  </si>
+  <si>
+    <t>25/05/2000</t>
+  </si>
+  <si>
+    <t>VANESSA LUIZA BIBIANO VIRGINI</t>
+  </si>
+  <si>
+    <t>SANDRO VIRGINI</t>
+  </si>
+  <si>
+    <t>19/09/2000</t>
+  </si>
+  <si>
+    <t>VICENTE BATISTA DE SOUZA</t>
+  </si>
+  <si>
+    <t>BENEDITO BATISTA DE SOUZA</t>
+  </si>
+  <si>
+    <t>11/01/1968</t>
+  </si>
+  <si>
+    <t>WOLDY PHILIAS</t>
+  </si>
+  <si>
+    <t>REBERT PHILIAS</t>
+  </si>
+  <si>
+    <t>07/10/1993</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Filiação Pai</t>
+  </si>
+  <si>
+    <t>Data Nascimento</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,19 +552,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -115,7 +598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -147,27 +630,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,24 +664,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,15 +839,630 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CadFunc.xlsx
+++ b/CadFunc.xlsx
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
